--- a/02/poteto1.xlsx
+++ b/02/poteto1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/NBPlan/TTC/授業資料/2025年度/1020201.アルゴリズム２/02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A2DAE89-F830-8942-8056-E1430D604C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28B31A0-0767-D944-A5F3-C9164F1F7FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12240" yWindow="6400" windowWidth="27500" windowHeight="16360" xr2:uid="{99B2852D-D418-E640-B370-58240AD3D243}"/>
   </bookViews>
@@ -511,7 +511,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
